--- a/Experimental_Structure_Data_05012025.xlsx
+++ b/Experimental_Structure_Data_05012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FELAB\Documents\MS272\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EF3148-5864-4005-818F-274E85459619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5614E2D7-987B-4A9B-AB1D-0FAC85BA720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,8 +504,8 @@
   </sheetPr>
   <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7513,7 +7513,7 @@
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>

--- a/Experimental_Structure_Data_05012025.xlsx
+++ b/Experimental_Structure_Data_05012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FELAB\Documents\MS272\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5614E2D7-987B-4A9B-AB1D-0FAC85BA720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF3449B-441D-459D-8C71-9FEC924E595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="970" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish_MASTER" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,47 @@
     <sheet name="Species_Codes" sheetId="2" r:id="rId3"/>
     <sheet name="Relief" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +220,42 @@
   </si>
   <si>
     <t>Sand</t>
+  </si>
+  <si>
+    <t>Black rockfish</t>
+  </si>
+  <si>
+    <t>Gopher rockfish</t>
+  </si>
+  <si>
+    <t>Kelp greenling</t>
+  </si>
+  <si>
+    <t>Painted greenling</t>
+  </si>
+  <si>
+    <t>Pile surfperch</t>
+  </si>
+  <si>
+    <t>Vermilion rockfish</t>
+  </si>
+  <si>
+    <t>SCAU</t>
+  </si>
+  <si>
+    <t>Copper rockfish</t>
+  </si>
+  <si>
+    <t>Striped surfperch</t>
+  </si>
+  <si>
+    <t>Stripetail rockfish</t>
+  </si>
+  <si>
+    <t>Lingcod</t>
+  </si>
+  <si>
+    <t>Rubberlip surfperch</t>
   </si>
 </sst>
 </file>
@@ -4039,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0B40C-1E55-408C-AF1B-D05AC9087A30}">
   <dimension ref="A1:AB110"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
@@ -4146,6 +4217,10 @@
       <c r="M2" s="3">
         <v>1</v>
       </c>
+      <c r="O2" t="str" cm="1">
+        <f t="array" ref="O2:O19">_xlfn.UNIQUE(K:K)</f>
+        <v>Species</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -4187,6 +4262,9 @@
       <c r="M3" s="3">
         <v>2</v>
       </c>
+      <c r="O3" t="str">
+        <v>SSER</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="2">
@@ -4228,6 +4306,9 @@
       <c r="M4" s="3">
         <v>1</v>
       </c>
+      <c r="O4" t="str">
+        <v>RNIC</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="4">
@@ -4266,6 +4347,9 @@
       <c r="M5" s="3">
         <v>6</v>
       </c>
+      <c r="O5" t="str">
+        <v>SMYS</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="4">
@@ -4304,6 +4388,9 @@
       <c r="M6" s="3">
         <v>6</v>
       </c>
+      <c r="O6" t="str">
+        <v>SATR</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
       <c r="A7" s="4">
@@ -4342,6 +4429,9 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
+      <c r="O7" t="str">
+        <v>EJAC</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
       <c r="A8" s="4">
@@ -4380,6 +4470,9 @@
       <c r="M8" s="3">
         <v>4</v>
       </c>
+      <c r="O8" t="str">
+        <v>SMEL</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
       <c r="A9" s="4">
@@ -4418,6 +4511,9 @@
       <c r="M9" s="3">
         <v>8</v>
       </c>
+      <c r="O9" t="str">
+        <v>SCAR</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
       <c r="A10" s="4">
@@ -4456,6 +4552,9 @@
       <c r="M10" s="3">
         <v>3</v>
       </c>
+      <c r="O10" t="str">
+        <v>HDEC</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
       <c r="A11" s="4">
@@ -4494,6 +4593,9 @@
       <c r="M11" s="3">
         <v>10</v>
       </c>
+      <c r="O11" t="str">
+        <v>OPIC</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="4">
@@ -4532,6 +4634,9 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
+      <c r="O12" t="str">
+        <v>RTOX</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
       <c r="A13" s="4">
@@ -4570,6 +4675,9 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
+      <c r="O13" t="str">
+        <v>RVAC</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
       <c r="A14" s="4">
@@ -4608,6 +4716,9 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
+      <c r="O14" t="str">
+        <v>SMIN</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
       <c r="A15" s="4">
@@ -4646,6 +4757,9 @@
       <c r="M15" s="3">
         <v>3</v>
       </c>
+      <c r="O15" t="str">
+        <v>SCUA</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
       <c r="A16" s="4">
@@ -4684,6 +4798,9 @@
       <c r="M16" s="3">
         <v>10</v>
       </c>
+      <c r="O16" t="str">
+        <v>ELAT</v>
+      </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
       <c r="A17" s="4">
@@ -4724,7 +4841,9 @@
         <v>1</v>
       </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="5" t="str">
+        <v>SSAX</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -4770,6 +4889,9 @@
       <c r="M18" s="3">
         <v>10</v>
       </c>
+      <c r="O18" t="str">
+        <v>OELO</v>
+      </c>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1">
       <c r="A19" s="4">
@@ -4801,6 +4923,9 @@
       </c>
       <c r="M19" s="3">
         <v>10</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1">
@@ -7435,13 +7560,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
@@ -7498,6 +7625,94 @@
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7512,7 +7727,7 @@
   </sheetPr>
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
